--- a/CP05MOAS-GL375/Omaha_Cal_Info_CP05MOAS-GL375_00001.xlsx
+++ b/CP05MOAS-GL375/Omaha_Cal_Info_CP05MOAS-GL375_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP05MOAS-GL375\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="4160" windowWidth="23360" windowHeight="9680" tabRatio="377"/>
+    <workbookView xWindow="4740" yWindow="4155" windowWidth="23355" windowHeight="9675" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$413</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -105,24 +110,6 @@
     <t>Scarlett Isabella</t>
   </si>
   <si>
-    <t>CP05MOAS-GL003-01-ADCPAM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL003-02-FLORTM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL003-03-CTDGVM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL003-04-DOSTAM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL003-05-PARADM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL003-00-ENG000000</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
   </si>
   <si>
@@ -142,6 +129,24 @@
   </si>
   <si>
     <t>FZ-1 Line</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375-01-ADCPAM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375-02-FLORTM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375-03-CTDGVM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375-04-DOSTAM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375-05-PARADM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375-00-ENG000000</t>
   </si>
 </sst>
 </file>
@@ -823,21 +828,21 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,10 +853,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -872,9 +877,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>375</v>
@@ -892,10 +897,10 @@
         <v>42048</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I2" s="29">
         <v>1000</v>
@@ -904,7 +909,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L2" s="26">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -915,18 +920,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="30"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
   </sheetData>
@@ -945,24 +950,24 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -977,9 +982,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="17">
         <v>375</v>
@@ -1007,9 +1012,9 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="17">
         <v>375</v>
@@ -1037,9 +1042,9 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" s="17">
         <v>375</v>
@@ -1067,9 +1072,9 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="17">
         <v>375</v>
@@ -1097,7 +1102,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1115,9 +1120,9 @@
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="17">
         <v>375</v>
@@ -1140,9 +1145,9 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="17">
         <v>375</v>
@@ -1165,9 +1170,9 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" s="17">
         <v>375</v>
@@ -1190,9 +1195,9 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:16" s="8" customFormat="1">
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10" s="17">
         <v>375</v>
@@ -1215,7 +1220,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:16" s="8" customFormat="1">
+    <row r="11" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1228,9 +1233,9 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" s="17">
         <v>375</v>
@@ -1249,7 +1254,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1262,9 +1267,9 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B14" s="17">
         <v>375</v>
@@ -1283,7 +1288,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1296,9 +1301,9 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="17">
         <v>375</v>
@@ -1317,7 +1322,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" s="8" customFormat="1">
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1330,9 +1335,9 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1">
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="17">
         <v>375</v>
@@ -1351,7 +1356,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1">
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
